--- a/pred_ohlcv/54_21/2019-10-15 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 KNC ohlcv.xlsx
@@ -1718,7 +1718,7 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-34973.41379999999</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-34973.41379999999</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-37360.83059999999</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-38059.45359999999</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-40932.89829999999</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-40929.7801</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-40927.88359999999</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-40927.88359999999</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-41377.20859999999</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-41375.10879999999</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-44233.15959999998</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-44231.15959999998</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-44891.45379999998</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-58621.63399999998</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-59121.63399999998</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-58926.63399999998</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-65345.39109999997</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-65345.39109999997</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-65523.53439999997</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-67506.42679999997</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-66806.25389999997</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-66806.25389999997</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-66806.25389999997</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-66806.25389999997</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-90304.93629999997</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-90924.47109999997</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-92607.22449999995</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-92172.22449999995</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-92170.21119999995</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-94663.90919999995</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-94417.60449999996</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-95116.60449999996</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-95116.60449999996</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-95116.60449999996</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-15 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 KNC ohlcv.xlsx
@@ -1718,7 +1718,7 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-35173.41379999999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-34973.41379999999</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-37360.83059999999</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-40927.88359999999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-40927.88359999999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-41377.20859999999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-58621.63399999998</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-65345.39109999997</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-65345.39109999997</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-65523.53439999997</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-65521.42679999997</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-66806.25389999997</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-92607.22449999995</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-92607.22449999995</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-92172.22449999995</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-92170.21119999995</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-94663.90919999995</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-94663.90919999995</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-94417.60449999996</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-95116.60449999996</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-95116.60449999996</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-95116.60449999996</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
